--- a/medicine/Mort/Cimetière_de_la_Mission_San_Fernando/Cimetière_de_la_Mission_San_Fernando.xlsx
+++ b/medicine/Mort/Cimetière_de_la_Mission_San_Fernando/Cimetière_de_la_Mission_San_Fernando.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Mission San Fernando est un cimetière catholique situé dans le quartier de Mission Hills dans la vallée de San Fernando à Los Angeles. La propriété jouxte le lycée catholique Bishop Alemany.
 Le cimetière de la mission San Fernando appartient et est exploité par l'archidiocèse de Los Angeles depuis la fondation de la mission et les premiers enterrements en 1797. La morgue catholique privée de Mission Hills est également située sur le terrain du cimetière. Le cimetière de la mission San Fernando est un cimetière offrant des cérémonies d'inhumation, de mise au tombeau et de crémation aux membres de la foi catholique et à leurs familles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-Philip Abbott (1924-1998), acteur
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Philip Abbott (1924-1998), acteur
 Edward Arnold (1890-1956), acteur
-Michele Yvette Avila (1968-1985), victime de meurtre
-B
-Charles Beaumont (1929-1967), auteur et scénariste
+Michele Yvette Avila (1968-1985), victime de meurtre</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charles Beaumont (1929-1967), auteur et scénariste
 Scotty Beckett (1929-1968), acteur
 Ed Begley (1901-1970), acteur
 William Bendix (1906-1964), acteur
@@ -527,96 +578,708 @@
 Loretta Blake (1898-1981) actrice
 Walter Brennan (1894-1974), acteur
 Evelyn Brent (1899-1975), actrice
-George Burditt (1923-2013), réalisateur de télévision
-C
-Candy Candido (1913-1999), acteur et artiste voix off
+George Burditt (1923-2013), réalisateur de télévision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Candy Candido (1913-1999), acteur et artiste voix off
 Bobby Chacon (1951-2016), boxeur
 Jerry Colonna (1904-1986), acteur et comédien
 Betty Compson (1897-1974), actrice
 Chuck Connors (1921-1992), acteur
 Carmine (1910-1991) et Italia Coppola (1912-2004), parents du cinéaste Francis Ford Coppola.
 Henry Corden (1920-2005), acteur et artiste voix off
-Joseph Créhan (1883-1966), acteur
-D
-Lee de Forest (1873-1961), physicien et ingénieur électricien, inventeur de la triode
+Joseph Créhan (1883-1966), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lee de Forest (1873-1961), physicien et ingénieur électricien, inventeur de la triode
 Roy Del Ruth (1893-1961), réalisateur
 Carmen Dragon (1914-1984), compositeur et chef d'orchestre, père de Daryl Dragon
 Tom Dugan (1889-1955), acteur
-Allan Dwan (1885-1981), réalisateur, producteur, scénariste
-F
-Frank Faylen (1905-1985), acteur
+Allan Dwan (1885-1981), réalisateur, producteur, scénariste</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Frank Faylen (1905-1985), acteur
 Dick Foran (1910-1979), acteur
 Harry Fox (1882-1959), star de la scène et du cinéma, inventeur de la danse « Fox-Trot »
-William Frawley (1887-1966), acteur
-G
-Anita Garvin (1907-1994), actrice
+William Frawley (1887-1966), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Anita Garvin (1907-1994), actrice
 Bert Glennon (1893-1967), directeur de la photographie
 George Gobel (1919-1991), acteur et comédien
-Peter Graves (1926-2010), acteur
-H
-William Haade (1903-1966), acteur
+Peter Graves (1926-2010), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>William Haade (1903-1966), acteur
 Ray Heindorf (1908-1980), compositeur
 Pat Hogan (1920-1966), acteur
 Bob Hope (1903-2003), acteur et comédien
 Dolores Hope (1909-2011), chanteuse et épouse de Bob Hope
-Carol Hughes (1910-1995), actrice, épouse de Frank Faylen
-J
-Alice Joyce (1890-1955), actrice
-K
-Bob Kelley (1917-1966), animateur sportif
+Carol Hughes (1910-1995), actrice, épouse de Frank Faylen</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alice Joyce (1890-1955), actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bob Kelley (1917-1966), animateur sportif
 Dorothea Kent (1916-1990), actrice
-Peggy Knudsen (1923-1980), actrice
-L
-Rosemary LaPlanche (1923-1979), actrice
+Peggy Knudsen (1923-1980), actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rosemary LaPlanche (1923-1979), actrice
 Charles Lamont (1895-1993), réalisateur
 Winnie Lightner (1899-1971), actrice, comédienne et chanteuse
 Richard Loo (1903-1983), acteur
 Edmund Lowe (1892-1971), acteur
-Ken Lynch (1910-1990), acteur
-M
-Michael Maltese (1908-1981), scénariste d'animation
+Ken Lynch (1910-1990), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Michael Maltese (1908-1981), scénariste d'animation
 Robert L. Manahan (1956-2000), acteur
 Adèle Mara (1923-2010), actrice
 June Marlowe (1903-1984), actrice (lieu de sépulture d'origine ; les restes ont ensuite été transférés à la cathédrale Notre-Dame des Anges )
 Bob May (1939-2009), acteur et cascadeur
 Frank Milano (1891-1970), gangster
 Kathryn Minner (1892-1969), actrice
-Lee Moran (1888-1961), acteur
-N
-Clarence Nash (1904-1985), artiste voix off
+Lee Moran (1888-1961), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Clarence Nash (1904-1985), artiste voix off
 Fred Niblo Jr. (1903-1973), scénariste, fils de Fred Niblo
 Thomas Noonan (1921-1968), acteur et comédien
 Eva Novak (1898-1988), actrice, sœur de Jane Novak
 Jane Novak (1896-1990), actrice, sœur d'Eva Novak
-Jay Novello (1904-1982), acteur
-O
-Henry O'Neill (1891-1961), acteur
+Jay Novello (1904-1982), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Henry O'Neill (1891-1961), acteur
 Ernie Orsatti (1902-1968), joueur de baseball des ligues majeures
-Artie Ortego (1890-1960), acteur
-P
-William H. Parker (1905-1966), chef de la police de Los Angeles
+Artie Ortego (1890-1960), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>William H. Parker (1905-1966), chef de la police de Los Angeles
 William Perkins (1947-1967), Caporal, récipiendaire de la médaille d'honneur de l'USMC
-Paul Picerni (1922-2011), acteur
-Q
-Eddie Quillan (1907-1990), acteur
-Bill Quinn (1912-1994), acteur
-R
-Jobyna Ralston (1900-1967), actrice
+Paul Picerni (1922-2011), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Eddie Quillan (1907-1990), acteur
+Bill Quinn (1912-1994), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Jobyna Ralston (1900-1967), actrice
 Ted Fio Rito (1900-1971), musicien
-Estelita Rodriguez (1928-1966), actrice
-S
-Teddy Sampson (1895-1970), actrice
+Estelita Rodriguez (1928-1966), actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Teddy Sampson (1895-1970), actrice
 Olga San Juan (1927-2009), actrice
 Trinidad Silva (1950-1988), acteur
-Penny Singleton (1908-2003), actrice et première femme présidente d'un syndicat AFL-CIO
-T
-Gloria Talbott (1931-2000), actrice
+Penny Singleton (1908-2003), actrice et première femme présidente d'un syndicat AFL-CIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Gloria Talbott (1931-2000), actrice
 Felipe Turich (1898-1992), acteur, époux de Rosa Turich
-Rosa Turich (1903-1998), actrice, épouse de Felipe Turich
-V
-Ritchie Valens (1941-1959), chanteur
-W
-James Westerfield (1913-1971), acteur
+Rosa Turich (1903-1998), actrice, épouse de Felipe Turich</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ritchie Valens (1941-1959), chanteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Mission_San_Fernando</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Personnages notables</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>James Westerfield (1913-1971), acteur
 Michael Whalen (1902-1974), acteur
 Frank Wilcox (1907-1974), acteur
 Jane Wyatt (1910-2006), actrice</t>
